--- a/Second year of study/Лабы по Прикладной статистике/лаб 2/лаб2.xlsx
+++ b/Second year of study/Лабы по Прикладной статистике/лаб 2/лаб2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -171,28 +171,28 @@
     <t>Количество по полю Модель</t>
   </si>
   <si>
+    <t>252766-352765</t>
+  </si>
+  <si>
     <t>52766-152765</t>
   </si>
   <si>
     <t>152766-252765</t>
   </si>
   <si>
-    <t>252766-352765</t>
-  </si>
-  <si>
     <t>352766-452765</t>
   </si>
   <si>
-    <t>452766-552765</t>
+    <t>3452766-3500000</t>
+  </si>
+  <si>
+    <t>1752766-1852765</t>
   </si>
   <si>
     <t>652766-752765</t>
   </si>
   <si>
-    <t>1752766-1852765</t>
-  </si>
-  <si>
-    <t>3452766-3500000</t>
+    <t>452766-552765</t>
   </si>
 </sst>
 </file>
@@ -203,8 +203,8 @@
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -232,6 +232,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -246,24 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +272,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,8 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,13 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,37 +397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +427,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,61 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,25 +517,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +599,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +644,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -696,16 +696,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,34 +714,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,7 +753,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -765,79 +765,79 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,34 +845,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,6 +927,178 @@
     <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -994,28 +1166,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Bake2s</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cuckatoo32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Equilhash</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ethash</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>KHeavyHash</c:v>
+                  <c:v>X11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Scrypt</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SHA-256</c:v>
+                  <c:v>Cuckatoo32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X11</c:v>
+                  <c:v>Ethash</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1027,28 +1199,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60333.3333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>630000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2554.28571428571</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>83000</c:v>
+                  <c:v>14840</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60333.3333333333</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14840</c:v>
+                  <c:v>2554.28571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,28 +1487,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Bake2s</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Cuckatoo32</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Equilhash</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Ethash</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrypt</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SHA-256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>X11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,28 +1520,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>17143.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3154</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>2650</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1622.85714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4092</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17143.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,28 +1808,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Bake2s</c:v>
+                  <c:v>Ethash</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Cuckatoo32</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Equilhash</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ethash</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrypt</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>SHA-256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>X11</c:v>
+                  <c:v>Bake2s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1669,28 +1841,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>53.0285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>41.825</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>34.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.0285714285714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.825</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>30.925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.85</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,28 +2129,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Bake2s</c:v>
+                  <c:v>KHeavyHash</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cuckatoo32</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bake2s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Equilhash</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ethash</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrypt</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>SHA-256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>X11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1990,28 +2162,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>269470</c:v>
+                  <c:v>3500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1780000</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>353159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250914.285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>247709.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>250914.285714286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>353159</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>219834.416666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>314050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,28 +2450,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>SHA-256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ethash</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrypt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Equilhash</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KHeavyHash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cuckatoo32</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Bake2s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cuckatoo32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Equilhash</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ethash</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>KHeavyHash</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrypt</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SHA-256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>X11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2311,28 +2483,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,28 +2772,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>252766-352765</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>52766-152765</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>152766-252765</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252766-352765</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>352766-452765</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3452766-3500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1752766-1852765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>652766-752765</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>452766-552765</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>652766-752765</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1752766-1852765</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3452766-3500000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2636,10 +2808,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -6309,7 +6481,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45244.5318171296" refreshedBy="ivan_" recordCount="30">
   <cacheSource type="worksheet">
-    <worksheetSource name="УТ_Данные"/>
+    <worksheetSource name="#NAME?"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Модель" numFmtId="0">
@@ -7212,12 +7384,78 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Первая" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+      <items count="29">
+        <item x="26"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
         <item x="7"/>
@@ -7229,6 +7467,15 @@
         <item x="5"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
@@ -7236,28 +7483,28 @@
   </rowFields>
   <rowItems count="9">
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -7282,12 +7529,77 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Вторая" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A19:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
+    <pivotField compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+      <items count="28">
+        <item x="23"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
         <item x="7"/>
@@ -7299,12 +7611,33 @@
         <item x="5"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
   <rowItems count="9">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x/>
     </i>
@@ -7316,18 +7649,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -7352,12 +7673,78 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Третья" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A35:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="29">
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
         <item x="7"/>
@@ -7369,6 +7756,15 @@
         <item x="5"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
@@ -7376,28 +7772,28 @@
   </rowFields>
   <rowItems count="9">
     <i>
-      <x/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -7422,151 +7818,45 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Четвертая" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A51:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" numFmtId="178" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Среднее по полю Стоимость, руб" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Пятая" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A67:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="9">
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Модель" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная _x000a_таблица12" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A83:B92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" numFmtId="178" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
       <items count="38">
         <item x="0"/>
         <item x="1"/>
@@ -7608,23 +7898,38 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </rowFields>
   <rowItems count="9">
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="5"/>
@@ -7633,10 +7938,271 @@
       <x v="7"/>
     </i>
     <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Среднее по полю Стоимость, руб" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СТ_Пятая" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A67:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Модель" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная _x000a_таблица12" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A83:B92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="31">
+        <item x="13"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" sortType="descending" numFmtId="178" showAll="0">
+      <items count="38">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7658,15 +8224,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="УТ_Данные" displayName="УТ_Данные" ref="A1:F31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="УТ_Данные" displayName="УТ_Данные" ref="A1:F31" totalsRowShown="0">
   <autoFilter ref="A1:F31"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Модель"/>
-    <tableColumn id="2" name="Хешрейт, Mh/s"/>
-    <tableColumn id="3" name="Энергопотребление, W"/>
-    <tableColumn id="4" name="Энергоэффективность, J/Mh"/>
-    <tableColumn id="5" name="Стоимость, руб"/>
-    <tableColumn id="6" name="Алгоритм хеширования"/>
+    <tableColumn id="2" name="Хешрейт, Mh/s" dataDxfId="0"/>
+    <tableColumn id="3" name="Энергопотребление, W" dataDxfId="1"/>
+    <tableColumn id="4" name="Энергоэффективность, J/Mh" dataDxfId="2"/>
+    <tableColumn id="5" name="Стоимость, руб" dataDxfId="3"/>
+    <tableColumn id="6" name="Алгоритм хеширования" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7932,8 +8498,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F31"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8031,7 +8597,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>140000</v>
+        <v>14000</v>
       </c>
       <c r="C5" s="3">
         <v>3010</v>
@@ -8051,7 +8617,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>136000</v>
+        <v>13600</v>
       </c>
       <c r="C6" s="3">
         <v>3264</v>
@@ -8071,7 +8637,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>840000</v>
+        <v>84000</v>
       </c>
       <c r="C7" s="3">
         <v>2650</v>
@@ -8091,7 +8657,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>420000</v>
+        <v>42000</v>
       </c>
       <c r="C8" s="3">
         <v>2650</v>
@@ -8111,7 +8677,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>118000</v>
+        <v>11800</v>
       </c>
       <c r="C9" s="3">
         <v>3306</v>
@@ -8131,7 +8697,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>104000</v>
+        <v>10400</v>
       </c>
       <c r="C10" s="3">
         <v>3250</v>
@@ -8147,11 +8713,11 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>112000</v>
+        <v>11200</v>
       </c>
       <c r="C11" s="3">
         <v>3472</v>
@@ -8167,7 +8733,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3">
@@ -8187,7 +8753,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3">
@@ -8207,7 +8773,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3">
@@ -8222,12 +8788,12 @@
       <c r="E14" s="3">
         <v>486948</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3">
@@ -8247,7 +8813,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3">
@@ -8267,7 +8833,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3">
@@ -8287,7 +8853,7 @@
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3">
@@ -8307,7 +8873,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="3">
@@ -8327,7 +8893,7 @@
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3">
@@ -8347,7 +8913,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3">
@@ -8367,7 +8933,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="3">
@@ -8387,7 +8953,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="3">
@@ -8407,7 +8973,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="3">
@@ -8427,7 +8993,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="3">
@@ -8447,7 +9013,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="3">
@@ -8467,7 +9033,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="3">
@@ -8487,7 +9053,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="3">
@@ -8507,7 +9073,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="3">
@@ -8527,7 +9093,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="3">
@@ -8547,7 +9113,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" spans="1:6">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="3">
@@ -8562,7 +9128,7 @@
       <c r="E31" s="3">
         <v>302978</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8583,8 +9149,8 @@
   <sheetPr/>
   <dimension ref="A3:B92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -8603,42 +9169,42 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>16600</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>3600</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>630000</v>
+        <v>60333.3333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>2554.28571428571</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>83000</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8651,18 +9217,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>60333.3333333333</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>14840</v>
+        <v>2554.28571428571</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8683,66 +9249,66 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>3154</v>
+        <v>17143.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>2800</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>2650</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>1622.85714285714</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>3188</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>3350</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>4092</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>17143.5</v>
+        <v>1622.85714285714</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8763,50 +9329,50 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>53.0285714285714</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>41.825</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>34.35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>53.0285714285714</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>41.825</v>
+        <v>34.35</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8819,10 +9385,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>34.85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8843,10 +9409,10 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>269470</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8859,50 +9425,50 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>247709.5</v>
+        <v>353159</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>250914.285714286</v>
+        <v>314050</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>3500000</v>
+        <v>269470</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>353159</v>
+        <v>250914.285714286</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>219834.416666667</v>
+        <v>247709.5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>314050</v>
+        <v>219834.416666667</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8923,66 +9489,66 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9014,7 +9580,7 @@
         <v>51</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -9022,7 +9588,7 @@
         <v>52</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2">

--- a/Second year of study/Лабы по Прикладной статистике/лаб 2/лаб2.xlsx
+++ b/Second year of study/Лабы по Прикладной статистике/лаб 2/лаб2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -200,11 +200,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -232,11 +232,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,10 +254,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,16 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,11 +316,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,11 +332,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,25 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,19 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,31 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,22 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +648,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,52 +696,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,94 +750,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,10 +848,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -941,7 +941,7 @@
         <sz val="12"/>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <numFmt numFmtId="180" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -959,7 +959,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -975,7 +974,7 @@
         <sz val="12"/>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <numFmt numFmtId="180" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -993,7 +992,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1027,7 +1025,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1043,7 +1040,7 @@
         <sz val="12"/>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <numFmt numFmtId="180" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1061,7 +1058,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1077,7 +1073,7 @@
         <sz val="12"/>
         <color theme="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0.0"/>
+      <numFmt numFmtId="180" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1095,7 +1091,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
   </dxfs>
@@ -6481,7 +6476,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45244.5318171296" refreshedBy="ivan_" recordCount="30">
   <cacheSource type="worksheet">
-    <worksheetSource name="#NAME?"/>
+    <worksheetSource ref="A1:A1" sheet="Данные"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Модель" numFmtId="0">
@@ -6518,8 +6513,8 @@
         <s v="Goldshell LT5 Pro"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Хешрейт, Mh/s" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="840000" count="28">
+    <cacheField name="Хешрейт, Mh/s" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="840000" count="28">
         <n v="9050"/>
         <n v="3680"/>
         <n v="2400"/>
@@ -6550,8 +6545,8 @@
         <n v="24500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Энергопотребление, W" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="240" maxValue="31448" count="27">
+    <cacheField name="Энергопотребление, W" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="31448" count="27">
         <n v="3300"/>
         <n v="2200"/>
         <n v="1920"/>
@@ -6582,7 +6577,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Энергоэффективность, J/Mh" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.6" maxValue="86.1" count="28">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="86.1" count="28">
         <n v="35"/>
         <n v="60"/>
         <n v="85"/>
@@ -6613,8 +6608,8 @@
         <n v="22.3"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Стоимость, руб" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52766" maxValue="3500000" count="30">
+    <cacheField name="Стоимость, руб" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3500000" count="30">
         <n v="424373"/>
         <n v="206855"/>
         <n v="96671"/>
@@ -6703,8 +6698,8 @@
         <s v="Goldshell LT5 Pro"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Хешрейт, Mh/s" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="840000" count="28">
+    <cacheField name="Хешрейт, Mh/s" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="840000" count="28">
         <n v="9050"/>
         <n v="3680"/>
         <n v="2400"/>
@@ -6735,8 +6730,8 @@
         <n v="24500"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Энергопотребление, W" numFmtId="178">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="240" maxValue="31448" count="27">
+    <cacheField name="Энергопотребление, W" numFmtId="180">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="31448" count="27">
         <n v="3300"/>
         <n v="2200"/>
         <n v="1920"/>
@@ -6767,7 +6762,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Энергоэффективность, J/Mh" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.6" maxValue="86.1" count="28">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="86.1" count="28">
         <n v="35"/>
         <n v="60"/>
         <n v="85"/>
@@ -6799,7 +6794,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Стоимость, руб" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52766" maxValue="3500000" count="30">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3500000" count="30">
         <n v="424373"/>
         <n v="206855"/>
         <n v="96671"/>
@@ -7419,7 +7414,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
       <items count="29">
         <item x="26"/>
         <item x="16"/>
@@ -7452,9 +7447,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -7564,8 +7559,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
       <items count="28">
         <item x="23"/>
         <item x="25"/>
@@ -7598,7 +7593,7 @@
       </items>
     </pivotField>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -7708,8 +7703,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField dataField="1" compact="0" showAll="0">
       <items count="29">
         <item x="22"/>
@@ -7743,7 +7738,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -7853,10 +7848,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
       <items count="38">
         <item x="0"/>
         <item x="1"/>
@@ -8007,10 +8002,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField axis="axisRow" compact="0" sortType="descending" showAll="0">
       <items count="9">
         <item x="6"/>
@@ -8120,10 +8115,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
-    <pivotField compact="0" numFmtId="178" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
+    <pivotField compact="0" numFmtId="180" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" sortType="descending" numFmtId="178" showAll="0">
+    <pivotField axis="axisRow" compact="0" sortType="descending" numFmtId="180" showAll="0">
       <items count="38">
         <item x="0"/>
         <item x="1"/>
@@ -8498,8 +8493,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -9060,7 +9055,7 @@
         <v>5400</v>
       </c>
       <c r="C28" s="3">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="D28" s="4">
         <v>32.5</v>
@@ -9149,7 +9144,7 @@
   <sheetPr/>
   <dimension ref="A3:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
